--- a/TIMES_STUDENTS_MID/files_for_later/SubRES_NEW_STG.xlsx
+++ b/TIMES_STUDENTS_MID/files_for_later/SubRES_NEW_STG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/Prywatny238/Shared Documents/General/Wymiana_Danych/TIMES_STUDENTS_MID/files_for_later/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emilia\Documents\IERP\TIMES_STUDENTS_MID\files_for_later\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{E899F99C-CBFC-46D2-A5C9-6A0707D04877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43D3A3C5-1197-42AB-9BDB-9B1064C142E9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DD2395-D410-47A4-8135-4B26CF7D9240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="4" r:id="rId1"/>
@@ -826,7 +826,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1048,6 +1048,15 @@
   </si>
   <si>
     <t>New Storage Processes</t>
+  </si>
+  <si>
+    <t>NEW_ELEC_STG2</t>
+  </si>
+  <si>
+    <t>new storage</t>
+  </si>
+  <si>
+    <t>STG</t>
   </si>
 </sst>
 </file>
@@ -1672,49 +1681,49 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:V21"/>
+  <dimension ref="B1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="83" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" customWidth="1"/>
-    <col min="2" max="2" width="40.7265625" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.1796875" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" customWidth="1"/>
-    <col min="13" max="13" width="13.1796875" customWidth="1"/>
-    <col min="14" max="14" width="11.26953125" customWidth="1"/>
-    <col min="15" max="15" width="12.54296875" customWidth="1"/>
-    <col min="16" max="16" width="14.54296875" customWidth="1"/>
-    <col min="17" max="17" width="13.1796875" customWidth="1"/>
-    <col min="18" max="18" width="13.81640625" customWidth="1"/>
-    <col min="19" max="19" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="2" max="2" width="40.77734375" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.21875" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" customWidth="1"/>
+    <col min="13" max="13" width="13.21875" customWidth="1"/>
+    <col min="14" max="14" width="11.21875" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" customWidth="1"/>
+    <col min="16" max="16" width="14.5546875" customWidth="1"/>
+    <col min="17" max="17" width="13.21875" customWidth="1"/>
+    <col min="18" max="18" width="13.77734375" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="2:22" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:22" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -1722,7 +1731,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:22" ht="13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
@@ -1769,7 +1778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:22" s="3" customFormat="1" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22" s="3" customFormat="1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>16</v>
       </c>
@@ -1869,7 +1878,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13" t="str">
+        <f>E7</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13" t="str">
+        <f>G7</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="H8" s="12">
+        <v>2027</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="J8" s="12">
+        <v>1</v>
+      </c>
+      <c r="K8" s="12">
+        <v>15</v>
+      </c>
+      <c r="L8" s="12">
+        <v>1</v>
+      </c>
+      <c r="M8" s="12">
+        <v>3500</v>
+      </c>
+      <c r="N8" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="O8" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="P8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
@@ -1881,7 +1935,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
@@ -1907,7 +1961,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="2:22" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:22" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>40</v>
       </c>
@@ -1957,13 +2011,13 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="2:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>55</v>
       </c>
@@ -1989,7 +2043,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="15" t="s">
         <v>62</v>
       </c>
@@ -2036,6 +2090,33 @@
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="12" t="str">
+        <f>B8</f>
+        <v>NEW_ELEC_STG2</v>
+      </c>
+      <c r="D22" s="12" t="str">
+        <f>C8</f>
+        <v>new storage</v>
+      </c>
+      <c r="E22" s="12" t="str">
+        <f>E21</f>
+        <v>PJ</v>
+      </c>
+      <c r="F22" s="12" t="str">
+        <f>F21</f>
+        <v>PJ/a</v>
+      </c>
+      <c r="G22" s="12" t="str">
+        <f>G21</f>
+        <v>DAYNITE</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -2056,17 +2137,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a0111623235845aab2bc86c0e7049642">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f9f4b9a3337047529e19b1dde5d7862c" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -2261,6 +2331,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5C2EBBD-EC00-405F-A12E-6B08818701DA}">
   <ds:schemaRefs>
@@ -2270,6 +2351,25 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C528B9A-C376-4475-9CF4-657E22993D41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D77DA20-23E1-45D8-AF9C-F12B793516BA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2278,8 +2378,4 @@
     <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C528B9A-C376-4475-9CF4-657E22993D41}"/>
 </file>